--- a/RTM/project management system RTM (1).xlsx
+++ b/RTM/project management system RTM (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KASUREKH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20608DEA-1257-4384-A7D9-0B90C64BBF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A73B3-7795-4E69-A0CB-0BB03B0DF674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5B3D6702-55DA-4BBD-ACA3-8C1C96F6D05B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>REQUIREMENT</t>
   </si>
@@ -51,124 +51,91 @@
     <t xml:space="preserve">       IT  MAPPING</t>
   </si>
   <si>
-    <t>PMS_01</t>
-  </si>
-  <si>
     <t>employee_login()</t>
   </si>
   <si>
     <t>Test_case 1</t>
   </si>
   <si>
-    <t>PMS_02</t>
-  </si>
-  <si>
-    <t>employee_register()</t>
-  </si>
-  <si>
-    <t>PMS_03</t>
-  </si>
-  <si>
-    <t>manager_login</t>
-  </si>
-  <si>
     <t>Test_case 2</t>
   </si>
   <si>
-    <t>PMS_04</t>
-  </si>
-  <si>
     <t>manager_registration()</t>
   </si>
   <si>
-    <t>PMS_05</t>
+    <t>manager_menu()</t>
+  </si>
+  <si>
+    <t>maintain_project_status()</t>
+  </si>
+  <si>
+    <t>1.5.4.1</t>
+  </si>
+  <si>
+    <t>1.5.4.5</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>PMS_TC_01</t>
+  </si>
+  <si>
+    <t>PMS_TC_02</t>
+  </si>
+  <si>
+    <t>PMS_TC_03</t>
+  </si>
+  <si>
+    <t>PMS_TC_04</t>
+  </si>
+  <si>
+    <t>PMS_TC_05</t>
+  </si>
+  <si>
+    <t>PMS_TC_06</t>
+  </si>
+  <si>
+    <t>PMS_TC_08</t>
+  </si>
+  <si>
+    <t>manager_login()</t>
+  </si>
+  <si>
+    <t>employee_registration()</t>
+  </si>
+  <si>
+    <t>PMS_TC_07</t>
   </si>
   <si>
     <t>employee_menu()</t>
   </si>
   <si>
-    <t>IT_CASE1</t>
-  </si>
-  <si>
-    <t>PMS_06</t>
-  </si>
-  <si>
-    <t>manager_menu()</t>
-  </si>
-  <si>
-    <t>IT_CASE2</t>
-  </si>
-  <si>
-    <t>PMS_07</t>
-  </si>
-  <si>
-    <t>manage_project_details()</t>
-  </si>
-  <si>
-    <t>PMS_08</t>
-  </si>
-  <si>
-    <t>add_project_details()</t>
-  </si>
-  <si>
-    <t>PMS_09</t>
-  </si>
-  <si>
-    <t>maintain_project_status()</t>
-  </si>
-  <si>
-    <t>PMS_10</t>
-  </si>
-  <si>
-    <t>add_empolee_project()</t>
-  </si>
-  <si>
-    <t>PMS_11</t>
-  </si>
-  <si>
-    <t>remove_employee_project()</t>
-  </si>
-  <si>
-    <t>PMS_12</t>
-  </si>
-  <si>
-    <t>adding_reports()</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>3.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              3.1.3</t>
-  </si>
-  <si>
-    <t>3.1.4</t>
-  </si>
-  <si>
-    <t>3.1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              3.1.6</t>
-  </si>
-  <si>
-    <t>3.1.7</t>
-  </si>
-  <si>
-    <t>3.1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              3.1.9</t>
-  </si>
-  <si>
-    <t>3.1.10</t>
-  </si>
-  <si>
-    <t>3.1.11</t>
-  </si>
-  <si>
-    <t>3.1.12</t>
+    <t>adding_report()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             1.5.3.1</t>
+  </si>
+  <si>
+    <t>Verify the employees ts added to the project</t>
+  </si>
+  <si>
+    <t>Test_case 3</t>
+  </si>
+  <si>
+    <t>1.5.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             1.5.4.4</t>
+  </si>
+  <si>
+    <t>IT_case1</t>
+  </si>
+  <si>
+    <t>IT_case 2</t>
+  </si>
+  <si>
+    <t>PMS_TC_09</t>
   </si>
 </sst>
 </file>
@@ -557,7 +524,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,27 +555,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -616,143 +583,110 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
+      <c r="E9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
